--- a/每週買賣報表/還券資料T+2執行/還券20230313.xlsx
+++ b/每週買賣報表/還券資料T+2執行/還券20230313.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -429,7 +429,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>2427</v>
